--- a/fatturato-az.xlsx
+++ b/fatturato-az.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Documents\CORSO EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Danilo Volonte\ICDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4EE550C-555C-4C7A-9CFC-1E9CE208A49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07086C0-AFF4-4C6B-9CFB-87FCEEFA29B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{92FD5FEA-5FF2-4310-BEEB-36B30429098A}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{92FD5FEA-5FF2-4310-BEEB-36B30429098A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -68,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,16 +80,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -93,12 +131,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -117,9 +202,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +242,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -263,7 +348,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,78 +501,115 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="19.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>57480</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>65000</v>
       </c>
+      <c r="D2" s="4">
+        <f>(C2-B2)/B2</f>
+        <v>0.13082811412665274</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>47500</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>48900</v>
       </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D5" si="0">(C3-B3)/B3</f>
+        <v>2.9473684210526315E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>38000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>45000</v>
       </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18421052631578946</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>47000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>56000</v>
       </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19148936170212766</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="B6" s="6">
+        <f>SUM(B2:B5)</f>
+        <v>189980</v>
+      </c>
+      <c r="C6" s="6">
+        <f>SUM(C2:C5)</f>
+        <v>214900</v>
+      </c>
+      <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="B7" s="6">
+        <f>B6/4</f>
+        <v>47495</v>
+      </c>
+      <c r="C7" s="6">
+        <f>C6/4</f>
+        <v>53725</v>
+      </c>
+      <c r="D7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
